--- a/01_表作成の基本.xlsx
+++ b/01_表作成の基本.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="01_1" sheetId="1" r:id="rId1"/>
+    <sheet name="九九" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -156,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +202,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -321,6 +337,7 @@
     <xf numFmtId="38" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="パーセント" xfId="2" builtinId="5"/>
@@ -912,4 +929,422 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19">
+        <v>3</v>
+      </c>
+      <c r="F3" s="19">
+        <v>4</v>
+      </c>
+      <c r="G3" s="19">
+        <v>5</v>
+      </c>
+      <c r="H3" s="19">
+        <v>6</v>
+      </c>
+      <c r="I3" s="19">
+        <v>7</v>
+      </c>
+      <c r="J3" s="19">
+        <v>8</v>
+      </c>
+      <c r="K3" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <f>$B4*C$3</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:K4" si="0">$B4*D$3</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:K12" si="1">$B5*C$3</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="19">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="19">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="19">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="19">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="19">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="19">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="19">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>